--- a/Data/Simul/Test3/Calib_2.xlsx
+++ b/Data/Simul/Test3/Calib_2.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1420646163290938</v>
+        <v>0.1420627062103862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1345971249177845</v>
+        <v>0.1346274914568794</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1310128716754757</v>
+        <v>0.1310818920595501</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1325200113772738</v>
+        <v>0.1325799438764872</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1309179678145158</v>
+        <v>0.1309190930335996</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1566773454195003</v>
+        <v>0.1563463830085842</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1734428977533157</v>
+        <v>0.1729509852576312</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1876790155102507</v>
+        <v>0.1874005350710515</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2042944689334088</v>
+        <v>0.2040435645749727</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1916173200519892</v>
+        <v>0.1914789941151972</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1905442467420838</v>
+        <v>0.190426694540258</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2193711127013465</v>
+        <v>0.2193275774871126</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2032886052107023</v>
+        <v>0.2033386315909222</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1628489582264149</v>
+        <v>0.1627644725560963</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1749782652300457</v>
+        <v>0.1749312105565364</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2028340586337425</v>
+        <v>0.2024353638506527</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1762161896570678</v>
+        <v>0.1752584804236891</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2816634340555953</v>
+        <v>0.2792937213350948</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2043019893293453</v>
+        <v>0.2023510426511649</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2539608289251037</v>
+        <v>0.2512953197580973</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3428281455495663</v>
+        <v>0.339692155988583</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4996893299482037</v>
+        <v>0.4964744671067983</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3560389140646822</v>
+        <v>0.3531154933575563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5467625966635599</v>
+        <v>0.5446521338588218</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5766533180773156</v>
+        <v>0.574584734462216</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6868241765825467</v>
+        <v>0.6865003214547853</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.614519925874824</v>
+        <v>0.6157162747156074</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.457746003301899</v>
+        <v>0.4626502229351098</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1455571461173905</v>
+        <v>0.1455596104190419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1647592251305061</v>
+        <v>0.1646613667122256</v>
       </c>
       <c r="D3" t="n">
-        <v>0.172345324026542</v>
+        <v>0.1721782994449457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1691923093151743</v>
+        <v>0.1690347955040321</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1732114232712061</v>
+        <v>0.1731719961952816</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1332641010132145</v>
+        <v>0.1337396555065097</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1030049761989121</v>
+        <v>0.1038613786930312</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08364683244099079</v>
+        <v>0.08399771540322114</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05607475206230144</v>
+        <v>0.05627911677419319</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08298082521981205</v>
+        <v>0.08294829871390641</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05602759696617531</v>
+        <v>0.05623166357402997</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03559795807390188</v>
+        <v>0.03565011306964829</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01995472233280872</v>
+        <v>0.02007615637535469</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006245922265522462</v>
+        <v>0.006325468463807465</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00311085628032304</v>
+        <v>0.003154271708105833</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.006637879049590059</v>
+        <v>0.006673188421064471</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002815638668120807</v>
+        <v>0.002828330998815019</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002987243082874628</v>
+        <v>0.002956481862008242</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0007864555864471398</v>
+        <v>0.0007844670632577568</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001768495451497374</v>
+        <v>0.001754112002120618</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001275949213912151</v>
+        <v>0.001283318313540918</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0008057151507917295</v>
+        <v>0.0008132683342503838</v>
       </c>
       <c r="X3" t="n">
-        <v>0.000140869347580533</v>
+        <v>0.0001446395276111049</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.110013365034615e-05</v>
+        <v>8.393861210495244e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.870541606702333e-05</v>
+        <v>4.026996971698033e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.111177265053132e-05</v>
+        <v>1.173565638156487e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.272555284108538e-06</v>
+        <v>1.38126805995958e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.796376337512746e-07</v>
+        <v>6.524486341400909e-07</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1455571500971436</v>
+        <v>0.145559614406212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1647592633545311</v>
+        <v>0.164661404789242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1723453782531763</v>
+        <v>0.1721783533592908</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1691923568182719</v>
+        <v>0.1690348427314918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1732114779138253</v>
+        <v>0.1731720508266436</v>
       </c>
       <c r="G4" t="n">
-        <v>0.133264628382279</v>
+        <v>0.133740177897033</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1030056751193687</v>
+        <v>0.1038620739009773</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08364771439103556</v>
+        <v>0.08399859445779354</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05607563373899237</v>
+        <v>0.05627999604424368</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08298175253124096</v>
+        <v>0.08294922091751181</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09833737736986611</v>
+        <v>0.09814002698723294</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1025411852951622</v>
+        <v>0.1024178977340949</v>
       </c>
       <c r="N4" t="n">
-        <v>0.117589864137249</v>
+        <v>0.1173628705578867</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1378960748292328</v>
+        <v>0.1376788974880832</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1408224170722369</v>
+        <v>0.1406285903089447</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.134070504572489</v>
+        <v>0.1339571929941481</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1448190772411938</v>
+        <v>0.1446888273866095</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1338434823523667</v>
+        <v>0.1341772137738362</v>
       </c>
       <c r="T4" t="n">
-        <v>0.157293211137562</v>
+        <v>0.1573380519384767</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1478222483173603</v>
+        <v>0.1481315972597218</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1097598111328556</v>
+        <v>0.1102883899778501</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04480628320854084</v>
+        <v>0.04531541335764262</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06070805884847626</v>
+        <v>0.06103265976254288</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01403954640964644</v>
+        <v>0.01430341103342141</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00161281660414293</v>
+        <v>0.001656283110265315</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0002686545376641568</v>
+        <v>0.000279961793166263</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.503936971539054e-05</v>
+        <v>6.776123578555684e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0001947640798303368</v>
+        <v>0.0002041802416669545</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1455586482477055</v>
+        <v>0.1455611153492437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1647736531866773</v>
+        <v>0.1646757392812319</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1723657927572874</v>
+        <v>0.1721986502969724</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1692102400331625</v>
+        <v>0.1690526221798688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1732320488611586</v>
+        <v>0.1731926175435795</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1332719686418464</v>
+        <v>0.1337476646742081</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1030062553716095</v>
+        <v>0.1038628257746185</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08364268871838354</v>
+        <v>0.08399366324397134</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05606718686985072</v>
+        <v>0.0562716167991898</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08297585109416543</v>
+        <v>0.08294340497710624</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08212367896116284</v>
+        <v>0.08210405400844677</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09451899237768048</v>
+        <v>0.09453346114322929</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08706464923628844</v>
+        <v>0.08712020677878318</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0689169911220473</v>
+        <v>0.06890889689128125</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07377009864891235</v>
+        <v>0.07377806957015207</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.085113869829544</v>
+        <v>0.08498318096615516</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07442857379665824</v>
+        <v>0.07405834132817621</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1182469231460671</v>
+        <v>0.117326316895896</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08684145201903981</v>
+        <v>0.08606174191255563</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1072959174565981</v>
+        <v>0.1062371161392644</v>
       </c>
       <c r="V5" t="n">
-        <v>0.133272421088652</v>
+        <v>0.1320790795835655</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1911870614578714</v>
+        <v>0.1901900764755261</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1801120221494343</v>
+        <v>0.1786932938682621</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2673667306121435</v>
+        <v>0.2665442982308883</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3116318667769306</v>
+        <v>0.3109141846158025</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.293720678063379</v>
+        <v>0.293274916916997</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3805268576548627</v>
+        <v>0.379138297158556</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5260993649015725</v>
+        <v>0.5204801071576313</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1387451154456896</v>
+        <v>0.1387426442152588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1114851524959941</v>
+        <v>0.1116325681182025</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1014281858395601</v>
+        <v>0.101660819755138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1055883485111204</v>
+        <v>0.1058134552159234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09991582545299134</v>
+        <v>0.09998798954855281</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1315435884922355</v>
+        <v>0.1312122100826538</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1582532898523975</v>
+        <v>0.157538445482447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1717493104968188</v>
+        <v>0.1715501154264599</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1945849160478062</v>
+        <v>0.1945719363540335</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1686750479233444</v>
+        <v>0.1688854305904849</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2040530792719324</v>
+        <v>0.2039373232529717</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2079374643655475</v>
+        <v>0.207988730737357</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2439953317742652</v>
+        <v>0.243855896450225</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2954215656377042</v>
+        <v>0.295428342410221</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2926487563297208</v>
+        <v>0.2926797666901175</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2653513377408025</v>
+        <v>0.2656636400267123</v>
       </c>
       <c r="R6" t="n">
-        <v>0.289800474156925</v>
+        <v>0.2905853311794901</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2156667083916107</v>
+        <v>0.2173588491638024</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2660615562496996</v>
+        <v>0.2674856754070101</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2313483456414674</v>
+        <v>0.233190704250287</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2067577981443789</v>
+        <v>0.2087259784520266</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1568932664787103</v>
+        <v>0.1591204208945123</v>
       </c>
       <c r="X6" t="n">
-        <v>0.256019760733391</v>
+        <v>0.2586300877217262</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.128219532998872</v>
+        <v>0.1300566521019646</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.09855588267148968</v>
+        <v>0.1009645235033604</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01703666591566862</v>
+        <v>0.01770211093991054</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.00434860548910424</v>
+        <v>0.004514703166275996</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01417242995909933</v>
+        <v>0.01479328328889552</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1436030898506402</v>
+        <v>0.1436025953270909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1470783182398361</v>
+        <v>0.1470525329643034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1477569635055942</v>
+        <v>0.1477309743807314</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1474945151677746</v>
+        <v>0.1474645388944135</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1482039057491437</v>
+        <v>0.14818066586397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.178979463738402</v>
+        <v>0.1785522458520314</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1996828913796431</v>
+        <v>0.1990377768883986</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2163692763967918</v>
+        <v>0.2160021675020471</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2367408879024271</v>
+        <v>0.2364176398600333</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2203417367075585</v>
+        <v>0.2201698187689751</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1630463297460247</v>
+        <v>0.1634247572454037</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1298870164901458</v>
+        <v>0.129900026870561</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08192153590579521</v>
+        <v>0.08221875453146346</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03124551455871169</v>
+        <v>0.03148793410165903</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01934568371042605</v>
+        <v>0.01949597493431506</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03635666485954023</v>
+        <v>0.0363760096148284</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01734023609486456</v>
+        <v>0.0173192672296824</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02126040870143419</v>
+        <v>0.02092953985999385</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006383452221518669</v>
+        <v>0.006324105432028794</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01305196946181689</v>
+        <v>0.01286505352839731</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01285532039772242</v>
+        <v>0.01283499175978085</v>
       </c>
       <c r="W7" t="n">
-        <v>0.009219091034619145</v>
+        <v>0.009228649056902734</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001788874321876703</v>
+        <v>0.001818139963029367</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001169604460437387</v>
+        <v>0.001196963192619933</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0006061402946871111</v>
+        <v>0.0006230903907409004</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0002038542839580833</v>
+        <v>0.000212327239416767</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.547871215550116e-05</v>
+        <v>2.723346834292912e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.17588076830847e-05</v>
+        <v>1.302806730723352e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1389142339123368</v>
+        <v>0.1389117140727666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1125472626746707</v>
+        <v>0.112688896677915</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1027454839423643</v>
+        <v>0.1029710107033717</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1068022187772225</v>
+        <v>0.1070198015977833</v>
       </c>
       <c r="F8" t="n">
-        <v>0.101307350937159</v>
+        <v>0.1013755869883729</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1329989043125222</v>
+        <v>0.1326616629789799</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1596040143247533</v>
+        <v>0.158886514002896</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1732651620457289</v>
+        <v>0.1730572088954555</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1961621544452133</v>
+        <v>0.1961361295933338</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1704274664718896</v>
+        <v>0.1706248319168183</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2058676909427548</v>
+        <v>0.2057354803916569</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2101462706962156</v>
+        <v>0.210182192957997</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2461852914028911</v>
+        <v>0.2460274837153648</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2974249733603666</v>
+        <v>0.2974059880888517</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2953239227283351</v>
+        <v>0.2953321162318284</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2696356853142917</v>
+        <v>0.2699114241264387</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2945798103851699</v>
+        <v>0.2952614214535377</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2263318002700514</v>
+        <v>0.2279578771093686</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2783318834563874</v>
+        <v>0.279654915595506</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2447521947461561</v>
+        <v>0.2465260970621116</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1932505544729127</v>
+        <v>0.195096085924653</v>
       </c>
       <c r="W8" t="n">
-        <v>0.09739925272126299</v>
+        <v>0.09885770477436755</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1451915005345591</v>
+        <v>0.146565685799272</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04236088872169035</v>
+        <v>0.04316260297017904</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01090127015936695</v>
+        <v>0.0112169139478979</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001934858844132993</v>
+        <v>0.002018625999342437</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.000512820344053936</v>
+        <v>0.0005343489873723899</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.001775099312282028</v>
+        <v>0.001858525860754984</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1441364062012033</v>
+        <v>0.1441206094830355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1405418687452447</v>
+        <v>0.1406090696780682</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1357690410081408</v>
+        <v>0.1354241332448635</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1401422953222329</v>
+        <v>0.1398431422299479</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1401752112962888</v>
+        <v>0.1398738949512626</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1150616203381689</v>
+        <v>0.1147294163613398</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1724084419053955</v>
+        <v>0.1707123607067611</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1894936644479777</v>
+        <v>0.1882678494217637</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1327922671713451</v>
+        <v>0.1286675661347208</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1418481951555997</v>
+        <v>0.1367224040293796</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1601899713675724</v>
+        <v>0.1555767213682898</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1412971895675165</v>
+        <v>0.1360459514795055</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1813244074109861</v>
+        <v>0.1744435531824042</v>
       </c>
       <c r="O2" t="n">
-        <v>0.209913846801707</v>
+        <v>0.2014664920081237</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2391440095830377</v>
+        <v>0.2290152410067436</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2765561383281839</v>
+        <v>0.2662888254815156</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1939140722806908</v>
+        <v>0.1764217357082125</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2032302671961796</v>
+        <v>0.1833843828205867</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2462697964659921</v>
+        <v>0.2240564288881936</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1384267991713024</v>
+        <v>0.114402169936748</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02813836258844956</v>
+        <v>0.01885470383645918</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02042904015296493</v>
+        <v>0.01361808596609844</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004557582012391094</v>
+        <v>0.00314817188960359</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.005000650408121501</v>
+        <v>0.003471071291729396</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001157311345524864</v>
+        <v>0.0007778270022835886</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0002611622346840516</v>
+        <v>0.0001509777360366474</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.426140003068324e-07</v>
+        <v>1.691872715288428e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.444861815299843e-08</v>
+        <v>2.06435917166609e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.139536836840755</v>
+        <v>0.1395453165379556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1520763354675846</v>
+        <v>0.1518661690627705</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1644018685969137</v>
+        <v>0.1652702221399787</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1543969002725801</v>
+        <v>0.1553731788741217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1555895390601971</v>
+        <v>0.1564919160514942</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1950032843972253</v>
+        <v>0.195949130487824</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1147851909691469</v>
+        <v>0.1183449109381992</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09492876171702587</v>
+        <v>0.09777512284988822</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1841379202384386</v>
+        <v>0.1903126587362985</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1797318090136146</v>
+        <v>0.1866908466110964</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08518016830916751</v>
+        <v>0.08875991011953174</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2576456270706867</v>
+        <v>0.2704527236781715</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1554931066934098</v>
+        <v>0.1676631883195791</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1156354420261912</v>
+        <v>0.1259274753993053</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08818486209469695</v>
+        <v>0.09628931595339271</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02572116567868347</v>
+        <v>0.0295348870421637</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1880212933705606</v>
+        <v>0.2102220624795498</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1718429622643567</v>
+        <v>0.1935066471330416</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1228899140591858</v>
+        <v>0.141138298872372</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2095697064747497</v>
+        <v>0.2385158693789686</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3304789749091314</v>
+        <v>0.3590627725621897</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3097376362044051</v>
+        <v>0.3363342710160891</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3226907271502152</v>
+        <v>0.3466234571860353</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2802108375826674</v>
+        <v>0.3025641395026042</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2792252603916192</v>
+        <v>0.3010008112831652</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2821461610233941</v>
+        <v>0.3032670455825724</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3909741175993866</v>
+        <v>0.4119822964508261</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3790002145217852</v>
+        <v>0.3997734973863426</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1395368310666884</v>
+        <v>0.1395453108162748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1520763477167109</v>
+        <v>0.1518661809978075</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1644019023880774</v>
+        <v>0.1652702574790743</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1543969149311837</v>
+        <v>0.1553731949627846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.155589554142458</v>
+        <v>0.1564919325186455</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1950028805450845</v>
+        <v>0.1959487408415687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1147862534172025</v>
+        <v>0.1183459800052971</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09493018373753766</v>
+        <v>0.09777655795812117</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1841394322356122</v>
+        <v>0.190314159390917</v>
       </c>
       <c r="K4" t="n">
-        <v>0.179734087995235</v>
+        <v>0.1866931292170801</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2334935343288118</v>
+        <v>0.2419911853215042</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1068895439463882</v>
+        <v>0.1059678328014085</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1358623440743434</v>
+        <v>0.134639912635058</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1319685086659413</v>
+        <v>0.1313193108882992</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1179065958232484</v>
+        <v>0.1183615276959721</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1533404467661054</v>
+        <v>0.1546315545758066</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0285719600850506</v>
+        <v>0.02474046459589015</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0167356369395602</v>
+        <v>0.01456086967354318</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01256570680925731</v>
+        <v>0.01113251855344273</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00267943780248183</v>
+        <v>0.001829627276737227</v>
       </c>
       <c r="V4" t="n">
-        <v>7.164143593373032e-05</v>
+        <v>2.645998801685476e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>4.854273319514341e-06</v>
+        <v>1.790481064881534e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>2.918351217742686e-08</v>
+        <v>9.292747093067846e-09</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.017356870192471e-09</v>
+        <v>3.171337079565099e-10</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.410232975217983e-12</v>
+        <v>4.869989010253343e-13</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.364900188934432e-14</v>
+        <v>5.21793185412287e-16</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.082861368461614e-22</v>
+        <v>8.776662458620713e-25</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.677169001211771e-26</v>
+        <v>8.560850237365774e-31</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1395346573755647</v>
+        <v>0.1395431568493245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1520809586576249</v>
+        <v>0.1518706737032519</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1644146230019472</v>
+        <v>0.1652835608274818</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1544024327786952</v>
+        <v>0.1553792511387149</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1555952313158877</v>
+        <v>0.1564981310220205</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1950173869662629</v>
+        <v>0.195963674930271</v>
       </c>
       <c r="H5" t="n">
-        <v>0.114772058782369</v>
+        <v>0.1183321919020906</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09490894469791625</v>
+        <v>0.09775551792939183</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1841200216124674</v>
+        <v>0.1902958040458147</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1797010990825999</v>
+        <v>0.1866609517841677</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2017901023373129</v>
+        <v>0.2112532154380093</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1810785477729714</v>
+        <v>0.1880656319266547</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2318130022631719</v>
+        <v>0.2405820161712592</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2687864410633251</v>
+        <v>0.278272809273836</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3071007844800391</v>
+        <v>0.3171687799635811</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3571705886324256</v>
+        <v>0.3708408398473433</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2436137725363835</v>
+        <v>0.2386691085941522</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2532816469534663</v>
+        <v>0.2461496116271358</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3053689868136155</v>
+        <v>0.2992910231939926</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1685830169555005</v>
+        <v>0.1497247114716923</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02513621014289364</v>
+        <v>0.01726897828945506</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01425842664602213</v>
+        <v>0.009803703788249631</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002053453400758917</v>
+        <v>0.001465139507265301</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001710844737755051</v>
+        <v>0.001237655899140421</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0002447515323147461</v>
+        <v>0.0001650773439100075</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.210797801736808e-05</v>
+        <v>1.682077416183231e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.670216262444643e-09</v>
+        <v>2.744884259555832e-09</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.422555057563365e-10</v>
+        <v>1.015091013193853e-10</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1475905028603111</v>
+        <v>0.1475918056405832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1283885469759372</v>
+        <v>0.128703499784477</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1108456045062048</v>
+        <v>0.1096191865979979</v>
       </c>
       <c r="E6" t="n">
-        <v>0.124543059896852</v>
+        <v>0.1230667296277752</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1223056947400924</v>
+        <v>0.1209669141131338</v>
       </c>
       <c r="G6" t="n">
-        <v>0.089563908714621</v>
+        <v>0.08825983596594637</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1502030478064362</v>
+        <v>0.1463028402364382</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1624034611406438</v>
+        <v>0.1590418734463661</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08841168669514692</v>
+        <v>0.08320122034895205</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08623340452214051</v>
+        <v>0.08084569908528839</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1129243082324339</v>
+        <v>0.1055142484314186</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04779922797488912</v>
+        <v>0.04248626334785851</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05996952187946403</v>
+        <v>0.05330433296124547</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05623999469224803</v>
+        <v>0.05025657466319022</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04800946842227633</v>
+        <v>0.04333931047709788</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06140753091091904</v>
+        <v>0.05575233088046743</v>
       </c>
       <c r="R6" t="n">
-        <v>0.007795503899564253</v>
+        <v>0.005839419492974095</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003589750611843089</v>
+        <v>0.00271319421022188</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002152598656668246</v>
+        <v>0.001655572064441388</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0003333617692462054</v>
+        <v>0.0001846342350850593</v>
       </c>
       <c r="V6" t="n">
-        <v>1.656698365349429e-05</v>
+        <v>5.753427163218597e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.775749961051039e-06</v>
+        <v>9.774161415418372e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>5.988784194994619e-08</v>
+        <v>2.048979469060861e-08</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.106041822949536e-09</v>
+        <v>3.216692173016413e-09</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.43974412729029e-10</v>
+        <v>3.41638500901234e-11</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.458786538530965e-13</v>
+        <v>4.290737365154378e-14</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.214137020051622e-20</v>
+        <v>1.013355144813624e-22</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.234787382316993e-24</v>
+        <v>1.456824568613358e-28</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1422274674099997</v>
+        <v>0.1422169995517223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.145806378406053</v>
+        <v>0.1457517300762989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1481131417044768</v>
+        <v>0.1482666932914363</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1467450018696939</v>
+        <v>0.1470099535268911</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1474735158709267</v>
+        <v>0.1476962351184492</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1197687706321923</v>
+        <v>0.1198335199731935</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1815882838511552</v>
+        <v>0.1803328043328778</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1994498217875216</v>
+        <v>0.1987846896267159</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1365005297849651</v>
+        <v>0.1325115773693574</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1447851001137225</v>
+        <v>0.1398277019918622</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09128803756763317</v>
+        <v>0.08920134174135258</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2162799191043819</v>
+        <v>0.2133509416789482</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1739867759615281</v>
+        <v>0.1745729901350174</v>
       </c>
       <c r="O7" t="n">
-        <v>0.159581173433145</v>
+        <v>0.1609652474963608</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1500816222160237</v>
+        <v>0.1510149697084738</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06216552288300301</v>
+        <v>0.06510668413243804</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3295410061086876</v>
+        <v>0.3376612826114475</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3472380758007159</v>
+        <v>0.3565793877765267</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3082181771654342</v>
+        <v>0.3207628224733952</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4799959916322984</v>
+        <v>0.4951109332760203</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6161446923070644</v>
+        <v>0.6047769801374432</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6555660026256375</v>
+        <v>0.6402407625602287</v>
       </c>
       <c r="X7" t="n">
-        <v>0.670698136527332</v>
+        <v>0.6487631981671186</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7130776564439409</v>
+        <v>0.6927271295651432</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7193726765790974</v>
+        <v>0.6980562843353545</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7175605687632254</v>
+        <v>0.6965651559071847</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.609025532116397</v>
+        <v>0.5880175316170181</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6209997406873412</v>
+        <v>0.6002264818685565</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1474372982454777</v>
+        <v>0.1474368011211041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1290295640308447</v>
+        <v>0.1293326766973258</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1120538187942393</v>
+        <v>0.1108659464191675</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1253733949287622</v>
+        <v>0.1239545496397646</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1232712535741493</v>
+        <v>0.1219809762249942</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09058214840644499</v>
+        <v>0.08931568143985652</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1514567232682947</v>
+        <v>0.1476289118783359</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1638851624713771</v>
+        <v>0.1605983887677529</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08989814226202478</v>
+        <v>0.0846970139739394</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08796630411708768</v>
+        <v>0.08255926728112555</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1151338778570683</v>
+        <v>0.1077033775798939</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04900994456316634</v>
+        <v>0.04363065508745331</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06155084171709657</v>
+        <v>0.0547940065954365</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0578745933174426</v>
+        <v>0.05179209027088454</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04957265738067779</v>
+        <v>0.04481085519473892</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06363860680067938</v>
+        <v>0.05784487804026511</v>
       </c>
       <c r="R8" t="n">
-        <v>0.008542391719062603</v>
+        <v>0.006445926517773776</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004081660233877957</v>
+        <v>0.003105906758944102</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002534820029846617</v>
+        <v>0.001963335954162364</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0004116861944211175</v>
+        <v>0.000232054424748429</v>
       </c>
       <c r="V8" t="n">
-        <v>1.355163287382901e-05</v>
+        <v>4.351759272961392e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.264347689823331e-06</v>
+        <v>4.087721277605172e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>1.183794860637452e-08</v>
+        <v>3.467435443927339e-09</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.041163305381386e-10</v>
+        <v>2.07557048308863e-10</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.05897057487982e-12</v>
+        <v>6.356810043760575e-13</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.971696083331428e-14</v>
+        <v>8.915928870394914e-16</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.826748061121204e-21</v>
+        <v>2.673565362821659e-24</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.151129488042544e-26</v>
+        <v>5.035644068307388e-30</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1431824538817224</v>
+        <v>0.1431906756543262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1418719293348418</v>
+        <v>0.1418874341715332</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1451968166388045</v>
+        <v>0.1451119100331192</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1466396224941335</v>
+        <v>0.1465102830816864</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1450070339675085</v>
+        <v>0.1448476564433348</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1542067992965205</v>
+        <v>0.152938169744031</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1733707283096633</v>
+        <v>0.1725542048871404</v>
       </c>
       <c r="I2" t="n">
-        <v>0.19119643883597</v>
+        <v>0.1901985232498168</v>
       </c>
       <c r="J2" t="n">
-        <v>0.179972599203782</v>
+        <v>0.1784654105071675</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1803033045907506</v>
+        <v>0.1781019184940828</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1792465621690742</v>
+        <v>0.1772656000047864</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1798305027961267</v>
+        <v>0.1786140743445933</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0894686423889976</v>
+        <v>0.09330962220861821</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07210574805173289</v>
+        <v>0.07621620755587796</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05833824008074105</v>
+        <v>0.06170464368287466</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05048657079609955</v>
+        <v>0.05394117207695815</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0341580483730302</v>
+        <v>0.03658961881774161</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05563165054050192</v>
+        <v>0.05916882917902002</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03600348895777836</v>
+        <v>0.03851906952899466</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02629195798913743</v>
+        <v>0.02806533627654299</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01464889539495312</v>
+        <v>0.01575866595127136</v>
       </c>
       <c r="W2" t="n">
-        <v>0.008138238030016461</v>
+        <v>0.008892899862411315</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003419605077461259</v>
+        <v>0.003821756042003189</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003859294269192777</v>
+        <v>0.00394576981079034</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001855031983635645</v>
+        <v>0.001873216842187208</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0004747447688013778</v>
+        <v>0.0004557876936829562</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0002056672674768138</v>
+        <v>0.0001943725032200824</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001139071643720931</v>
+        <v>0.0001068818922752778</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1428374566039342</v>
+        <v>0.1427627812126328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1470645416909648</v>
+        <v>0.1469834181639231</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1362791454220952</v>
+        <v>0.1365340097977537</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1309570899986292</v>
+        <v>0.1314728427914036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1378289715710585</v>
+        <v>0.1383871777307695</v>
       </c>
       <c r="G3" t="n">
-        <v>0.12755974300894</v>
+        <v>0.129893542625172</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0906499188155501</v>
+        <v>0.0928224572375162</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06346563209616954</v>
+        <v>0.06589861855841142</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08897945142313397</v>
+        <v>0.09195521566379919</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1023909593551176</v>
+        <v>0.1056835722085768</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07361878405832688</v>
+        <v>0.0758198973102536</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04516299424376027</v>
+        <v>0.04726083356839317</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008142279940035493</v>
+        <v>0.008400678279704712</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00342695081992769</v>
+        <v>0.003608667313112749</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001884404205497232</v>
+        <v>0.001975779432698521</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0009988877620354542</v>
+        <v>0.001063917338197602</v>
       </c>
       <c r="R3" t="n">
-        <v>0.000394178942644122</v>
+        <v>0.000417237426385466</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0009985549725226683</v>
+        <v>0.001031300773274448</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0003712777640535787</v>
+        <v>0.0003832642411130045</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0001905166208680456</v>
+        <v>0.0001952965251810813</v>
       </c>
       <c r="V3" t="n">
-        <v>5.341752029657678e-05</v>
+        <v>5.482294552534716e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.340732688312857e-05</v>
+        <v>1.39131736943114e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>2.515933897433009e-06</v>
+        <v>2.63131055624247e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.351124363980789e-06</v>
+        <v>3.199824623799624e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.035012542663134e-06</v>
+        <v>9.703527907249727e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.992485190836237e-07</v>
+        <v>1.769777625043065e-07</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.518257993890062e-08</v>
+        <v>5.688039209179476e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.982014326915649e-08</v>
+        <v>2.579680409192679e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.142837455588998</v>
+        <v>0.1427627801333137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.147064547077073</v>
+        <v>0.1469834234613732</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1362791346805822</v>
+        <v>0.1365339994465834</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1309570719646974</v>
+        <v>0.131472825427747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1378289624145402</v>
+        <v>0.1383871693556963</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1275600869489959</v>
+        <v>0.1298938689172107</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09065052060829927</v>
+        <v>0.09282305858153307</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06346644396985963</v>
+        <v>0.06589943957990753</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08898026088061003</v>
+        <v>0.09195602609711417</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1023921625791592</v>
+        <v>0.1056847607172545</v>
       </c>
       <c r="L4" t="n">
-        <v>0.117236682291778</v>
+        <v>0.1212497450271005</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1325015341492974</v>
+        <v>0.1364822083608366</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1755355105288753</v>
+        <v>0.1814454183312806</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1812967987713255</v>
+        <v>0.1877498715928697</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1827980646780107</v>
+        <v>0.1897697795188233</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1834213351098868</v>
+        <v>0.1908292086167752</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1744709355234685</v>
+        <v>0.1822380920737812</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1827605829165765</v>
+        <v>0.1902919329638517</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1729611401073801</v>
+        <v>0.1809964460405061</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1638870418632359</v>
+        <v>0.1717470491225669</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1859032141098534</v>
+        <v>0.1941966526287412</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1947507231070024</v>
+        <v>0.2031566451096906</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2090620564348542</v>
+        <v>0.2172821574069917</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2368836563314164</v>
+        <v>0.2526703868657545</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2827493908291103</v>
+        <v>0.3003360989134065</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3125862336842423</v>
+        <v>0.3307227238058201</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3272372000506682</v>
+        <v>0.3462113590388832</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.337347529541474</v>
+        <v>0.3567641634999371</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1428370734206306</v>
+        <v>0.1427623737336114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1470665745491492</v>
+        <v>0.1469854175624259</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1362750910326279</v>
+        <v>0.1365301027395429</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1309502832154577</v>
+        <v>0.1314662889869703</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1378255153696534</v>
+        <v>0.138384016472418</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1275507347360917</v>
+        <v>0.1298850667844136</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09063762659262166</v>
+        <v>0.0928103317640655</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06345058909120732</v>
+        <v>0.06588351453056727</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08896377994733831</v>
+        <v>0.09193966434637432</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1023684459061753</v>
+        <v>0.1056614611732822</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1013783059879921</v>
+        <v>0.1047590377536644</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1012493052539173</v>
+        <v>0.1051032224674608</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0491584151796666</v>
+        <v>0.05362394795890227</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03930990838872671</v>
+        <v>0.04347075136549935</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03163104401683411</v>
+        <v>0.03500022165138663</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02748860856740397</v>
+        <v>0.0307205732103602</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01872282904197002</v>
+        <v>0.02097971077887626</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03019819891763327</v>
+        <v>0.03360568542105743</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01968584046374373</v>
+        <v>0.02203750672923927</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01444397520497222</v>
+        <v>0.01613394575296288</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008975275431313755</v>
+        <v>0.01010324981497506</v>
       </c>
       <c r="W5" t="n">
-        <v>0.005677891735975769</v>
+        <v>0.0064836903971479</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002809459486701688</v>
+        <v>0.003281296791861353</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003026690782886616</v>
+        <v>0.003249584509632748</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001590867626269728</v>
+        <v>0.00168900127613756</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00044001055436777</v>
+        <v>0.0004455889292057224</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0002057802729231452</v>
+        <v>0.0002052910814277534</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0001202539438104883</v>
+        <v>0.0001191663424009768</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1425440129229614</v>
+        <v>0.1426726654322478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1361783928894681</v>
+        <v>0.1363111924511923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1524498039111876</v>
+        <v>0.1520714541397874</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1606949678853344</v>
+        <v>0.1598844215558233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1498122496516399</v>
+        <v>0.1489555710951002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1561429446813381</v>
+        <v>0.1537280292220124</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1920621396176667</v>
+        <v>0.1894240201498641</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2149317915017979</v>
+        <v>0.2120662993018565</v>
       </c>
       <c r="J6" t="n">
-        <v>0.188216723461741</v>
+        <v>0.1850582110420899</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1683609176909996</v>
+        <v>0.1653965593972224</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1959497153293233</v>
+        <v>0.192898394769024</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2229187775668215</v>
+        <v>0.218375822043633</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3310148595072553</v>
+        <v>0.3234427977492276</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3490374507421838</v>
+        <v>0.3412251696313929</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3619736172235956</v>
+        <v>0.3547916586432174</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3695431144849367</v>
+        <v>0.3621298467226714</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3908518976258621</v>
+        <v>0.3842484822077454</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3656709108573003</v>
+        <v>0.3580787642762481</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3905083784474757</v>
+        <v>0.3836042835899373</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4059059763134346</v>
+        <v>0.3998017225127925</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3761576595654944</v>
+        <v>0.3715979684474768</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3610610869212141</v>
+        <v>0.3577132364980912</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3313638912068627</v>
+        <v>0.3302190269067199</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3060132562606747</v>
+        <v>0.2950905894612954</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2486838082286898</v>
+        <v>0.2383572180652554</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2495728545080712</v>
+        <v>0.2387525864623635</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2492859889650776</v>
+        <v>0.2381970518065641</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2489021289891229</v>
+        <v>0.2376346914214243</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1431633981930545</v>
+        <v>0.1431288611505088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1442701234002333</v>
+        <v>0.1442387873026801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1414042834921673</v>
+        <v>0.1414674863955349</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1397868995290925</v>
+        <v>0.1399546112819</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1420721825461721</v>
+        <v>0.1422352653106531</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1509031012578144</v>
+        <v>0.1499537486608216</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1711460978409619</v>
+        <v>0.1706468299902702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1892208791026411</v>
+        <v>0.1885774701975424</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1768609203947828</v>
+        <v>0.1756959936997178</v>
       </c>
       <c r="K7" t="n">
-        <v>0.175398338580535</v>
+        <v>0.1736195737049235</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1363561933277393</v>
+        <v>0.1348054051854013</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09520956241687323</v>
+        <v>0.09552166565388673</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01803925466337186</v>
+        <v>0.01842422870581104</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008776918901878181</v>
+        <v>0.009153788423286693</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005234292956698719</v>
+        <v>0.005441824556474429</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.003023692619614107</v>
+        <v>0.003193415646565418</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001287365682670546</v>
+        <v>0.001353123715893321</v>
       </c>
       <c r="S7" t="n">
-        <v>0.003387601294192806</v>
+        <v>0.003466829354564768</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001356702171800309</v>
+        <v>0.00138929658073278</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0007296166583550703</v>
+        <v>0.0007423704289292847</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0002205535066848266</v>
+        <v>0.0002249049811501256</v>
       </c>
       <c r="W7" t="n">
-        <v>6.010896008698558e-05</v>
+        <v>6.204249701445868e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>1.213047533699587e-05</v>
+        <v>1.26401305629971e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.602559550689176e-05</v>
+        <v>1.523225783989258e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.159282383501695e-06</v>
+        <v>4.817458545761569e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.017100655417799e-06</v>
+        <v>8.997228612992002e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.402796554236421e-07</v>
+        <v>2.957604280400452e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.580006628559256e-07</v>
+        <v>1.361555944366801e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1425981493886989</v>
+        <v>0.1427198626833592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1364838910582698</v>
+        <v>0.1366103268868721</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1521157248225355</v>
+        <v>0.1517510374476785</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1600140649126557</v>
+        <v>0.1592387268744693</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1496250844794272</v>
+        <v>0.148803143592028</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1560765900702993</v>
+        <v>0.1537075740463386</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1914829682152372</v>
+        <v>0.1889190973896105</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2142682254023545</v>
+        <v>0.211476134581898</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1880262646886119</v>
+        <v>0.1849294786437371</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1687858712972628</v>
+        <v>0.1658521543046577</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1962137568357662</v>
+        <v>0.1932019199497699</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2231273235732036</v>
+        <v>0.2186421735611962</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3286410377917979</v>
+        <v>0.3213533067664555</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3460462243242253</v>
+        <v>0.3385755441179608</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3581403368386227</v>
+        <v>0.351316092514525</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3650377906600232</v>
+        <v>0.358121866388472</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3801147448103543</v>
+        <v>0.3741737349795768</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3613525005012725</v>
+        <v>0.3543566580319835</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3791131720877684</v>
+        <v>0.3730701332894768</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3885509153499966</v>
+        <v>0.3833142793810245</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4140409844714039</v>
+        <v>0.4080637352308599</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4302985439188211</v>
+        <v>0.4236775724619501</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4533303413848858</v>
+        <v>0.4453804914113046</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4501977256359587</v>
+        <v>0.4450252372700633</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4651147070373685</v>
+        <v>0.4577386770916769</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4369249401353428</v>
+        <v>0.429622236408304</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.423064957981619</v>
+        <v>0.4151915729290847</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4135159925404144</v>
+        <v>0.4053749348915639</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1459083789471808</v>
+        <v>0.1459218923777959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1441307816143378</v>
+        <v>0.1441456583918801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1464472223585908</v>
+        <v>0.1464573528625003</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1473036235122493</v>
+        <v>0.1473116412723791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1461293306498612</v>
+        <v>0.1461372248644403</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1239389492776772</v>
+        <v>0.1239300086058652</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1070419748623552</v>
+        <v>0.107017027170567</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1190525399751133</v>
+        <v>0.1190260719230087</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1117311560883398</v>
+        <v>0.1115241066214857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01944033162159431</v>
+        <v>0.01926912728414623</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01972080533505288</v>
+        <v>0.01954548340437893</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02289646801843851</v>
+        <v>0.02268101004512472</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02751172007712605</v>
+        <v>0.02726408676034868</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0293012432272393</v>
+        <v>0.02903070953627866</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03717949601454162</v>
+        <v>0.03684722352809147</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0319370211732084</v>
+        <v>0.03163963120417224</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03686039133560913</v>
+        <v>0.03654062326727525</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02806221560854209</v>
+        <v>0.02781428580984512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03211257104907064</v>
+        <v>0.03183238244716174</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04897121985131398</v>
+        <v>0.04853540265989074</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05445295808471805</v>
+        <v>0.05398674926831305</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05214397059955168</v>
+        <v>0.05170279851939555</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05961609915360559</v>
+        <v>0.05908854467220234</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05985563064415469</v>
+        <v>0.05933455541659532</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0560805968513175</v>
+        <v>0.05555961591324651</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.08285917401396267</v>
+        <v>0.08207397363161814</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1318767136396044</v>
+        <v>0.1305963938907197</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.09557889868739411</v>
+        <v>0.09457611286228888</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1346525678144869</v>
+        <v>0.1345998596258061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1414017876489678</v>
+        <v>0.1413537323313616</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1332296202720316</v>
+        <v>0.1332023919942033</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1281547878360789</v>
+        <v>0.1281319525680173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1336365533000121</v>
+        <v>0.1336177021185534</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1694896558447128</v>
+        <v>0.1694994427318935</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1952462779730238</v>
+        <v>0.1952802204018716</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1839565025622034</v>
+        <v>0.1839920297501733</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2058945634228359</v>
+        <v>0.2061883324425028</v>
       </c>
       <c r="K3" t="n">
-        <v>0.31498849234999</v>
+        <v>0.3151626535168334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2639334598473345</v>
+        <v>0.2639018115649413</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08765236427246662</v>
+        <v>0.08738784170368089</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1414787579510253</v>
+        <v>0.1413627111635833</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2736703192216673</v>
+        <v>0.274165927314018</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1343853174126698</v>
+        <v>0.1345731504494948</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2821519968084734</v>
+        <v>0.2827258149059749</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2321866933762008</v>
+        <v>0.2323147422979968</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4171501389629237</v>
+        <v>0.4175489474843499</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3243970521098757</v>
+        <v>0.324640110315477</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02367765155494554</v>
+        <v>0.02361759669779841</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07800046658933596</v>
+        <v>0.0780277171137415</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1858584233579491</v>
+        <v>0.1860731523030865</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05999879879054044</v>
+        <v>0.05997579926547</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1163893016032898</v>
+        <v>0.1164352994985844</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08871343420500094</v>
+        <v>0.08872834464331271</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03352841146232792</v>
+        <v>0.0333917795855628</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01750692809471531</v>
+        <v>0.01739556874214829</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.004561242026743505</v>
+        <v>0.00452478465237733</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1346525539148233</v>
+        <v>0.1345998456561197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1414017829033496</v>
+        <v>0.1413537275145077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.133229604127647</v>
+        <v>0.133202375805816</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1281547660542535</v>
+        <v>0.1281319307508943</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1336365382406714</v>
+        <v>0.1336176870263197</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1694888987762605</v>
+        <v>0.1694986849854377</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1952448161580616</v>
+        <v>0.19527875706477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1839557116904234</v>
+        <v>0.1839912378305031</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2058940328187925</v>
+        <v>0.2061877975485323</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3149851003649634</v>
+        <v>0.3151592367837503</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3612141396590217</v>
+        <v>0.3616347008304333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4874990750717472</v>
+        <v>0.4883604901221582</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3528751411765927</v>
+        <v>0.3534011257858346</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1781204368904539</v>
+        <v>0.1781325752174504</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1863106309691839</v>
+        <v>0.1864312166576794</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1255995153938161</v>
+        <v>0.1255883648051646</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09573394892131663</v>
+        <v>0.09580691483242497</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05231269509536617</v>
+        <v>0.05233062113165732</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0794047746492989</v>
+        <v>0.07946608869204226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1147706892002965</v>
+        <v>0.1149670999362404</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06905057853760775</v>
+        <v>0.06915869671885469</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04130188974912242</v>
+        <v>0.04135465850488026</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01954577179590407</v>
+        <v>0.01959281318169434</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01236903233629444</v>
+        <v>0.01239548397832763</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07514253918857804</v>
+        <v>0.07555119359934154</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02120058448117625</v>
+        <v>0.02130944890065592</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.00407456321866513</v>
+        <v>0.004084940055733687</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0006669594895471117</v>
+        <v>0.000666539488614902</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1346473213208429</v>
+        <v>0.1345945867035061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1413999961810679</v>
+        <v>0.1413519139762131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1332235265365863</v>
+        <v>0.1331962816502459</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1281465664634223</v>
+        <v>0.1281237178726415</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1336308691405049</v>
+        <v>0.1336120055435113</v>
       </c>
       <c r="G5" t="n">
-        <v>0.169494612256805</v>
+        <v>0.1695043923865983</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1952617094840868</v>
+        <v>0.1952956553376395</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1839613738921429</v>
+        <v>0.1839968977807543</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2058941694868684</v>
+        <v>0.2061879748897483</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3150304187941206</v>
+        <v>0.3152049476785449</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3187005974128528</v>
+        <v>0.3188457283403797</v>
       </c>
       <c r="M5" t="n">
-        <v>0.366620164412379</v>
+        <v>0.3665834422012166</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4465946542732389</v>
+        <v>0.4467416303436363</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4855746912275755</v>
+        <v>0.485635017510188</v>
       </c>
       <c r="P5" t="n">
-        <v>0.616565321162011</v>
+        <v>0.6168195965646077</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5264422063673904</v>
+        <v>0.5264551895806452</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6026720190727182</v>
+        <v>0.6030829091850658</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4552075559641051</v>
+        <v>0.4554415828214041</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5235859578809079</v>
+        <v>0.5239158719547059</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8031735705923615</v>
+        <v>0.8035703496607605</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7792457532728821</v>
+        <v>0.7797477029118854</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6854487552112581</v>
+        <v>0.6859085484362349</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8474919489378164</v>
+        <v>0.8481208104817725</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7891983634509377</v>
+        <v>0.7898421237043054</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7611580011244947</v>
+        <v>0.7614191418726537</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8546855692584348</v>
+        <v>0.8555962591061265</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8423050392363759</v>
+        <v>0.8437509903539534</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.8980339056655877</v>
+        <v>0.8990932089479402</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1546730653106292</v>
+        <v>0.1547555433790831</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1441652454527109</v>
+        <v>0.1442377276801028</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1567244198254209</v>
+        <v>0.1567637636977692</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1651262311543868</v>
+        <v>0.165159749588999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1563097708598731</v>
+        <v>0.156336082611762</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1245248721467117</v>
+        <v>0.1245239765796118</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1025800765068692</v>
+        <v>0.1025580120218328</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1078594050123874</v>
+        <v>0.1078370277979399</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0826565794253431</v>
+        <v>0.08242538634174963</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009036359967018816</v>
+        <v>0.00893973645198947</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01055025139907751</v>
+        <v>0.01044488693876556</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01420793720980648</v>
+        <v>0.01407609932467407</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009764167427956966</v>
+        <v>0.009670010663095171</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004600018182878136</v>
+        <v>0.004548429211117766</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00464365364054688</v>
+        <v>0.00459427753315739</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002956906914243944</v>
+        <v>0.002923092795793661</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002012256307997675</v>
+        <v>0.001990832940118563</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001013340629708155</v>
+        <v>0.001002071706196165</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001701984121768077</v>
+        <v>0.001683995819293508</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002263362179874305</v>
+        <v>0.002241741762120321</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001563109530634714</v>
+        <v>0.001547966823833583</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001061113277402626</v>
+        <v>0.00105063350856301</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0007710950190556448</v>
+        <v>0.0007645956117440981</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0005587910342135051</v>
+        <v>0.000553996191686512</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0009085669825292809</v>
+        <v>0.0009032759264501722</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0002639852839597302</v>
+        <v>0.0002623785367567451</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.217608265221675e-05</v>
+        <v>5.172627901958641e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.880345777395577e-06</v>
+        <v>8.775875358385729e-06</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.141190862255712</v>
+        <v>0.141174132504014</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432801010503553</v>
+        <v>0.1432672735067092</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1408785946918966</v>
+        <v>0.1408727317210732</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1388757374467048</v>
+        <v>0.1388703276936118</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1408175813202291</v>
+        <v>0.1408143390080743</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1186928593736005</v>
+        <v>0.118674567539803</v>
       </c>
       <c r="H7" t="n">
-        <v>0.102034256702741</v>
+        <v>0.1020016416850705</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1130924646975665</v>
+        <v>0.1130573552942104</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1044718528835849</v>
+        <v>0.104259895398861</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01728936163671224</v>
+        <v>0.01713254012252319</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01511872151436769</v>
+        <v>0.01497232084649055</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006627123615951865</v>
+        <v>0.006548176874080621</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01177639664967007</v>
+        <v>0.01165722290038709</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02400005836444355</v>
+        <v>0.02380691120458121</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01612503271196352</v>
+        <v>0.01599464398420652</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02783733040952787</v>
+        <v>0.02762783654264185</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02840809018391546</v>
+        <v>0.02815985126687138</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04517067658323332</v>
+        <v>0.04479106808042427</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03700593898695588</v>
+        <v>0.03668864679463183</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004729718891693229</v>
+        <v>0.004676938295600474</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01617022768734238</v>
+        <v>0.01602888664757961</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03324029050512593</v>
+        <v>0.03297400874286247</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01206353193919989</v>
+        <v>0.01194910493980753</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02128938601901039</v>
+        <v>0.02110205189661064</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01663585077210439</v>
+        <v>0.01648482800824188</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.007058500360835143</v>
+        <v>0.00696467923875952</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.004103178820408034</v>
+        <v>0.00403964713064316</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.001135872593816037</v>
+        <v>0.001116498508680901</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1542752504363248</v>
+        <v>0.1543541397536749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1442203051492107</v>
+        <v>0.1442899665992254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1562670121878268</v>
+        <v>0.1563051022683923</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1642382875329045</v>
+        <v>0.1642706802534571</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1558393564888482</v>
+        <v>0.1558649588273391</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1243701523242323</v>
+        <v>0.1243689271707903</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1025908883128625</v>
+        <v>0.1025686863182485</v>
       </c>
       <c r="I8" t="n">
-        <v>0.108122002170163</v>
+        <v>0.1080993796234101</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08345764587423535</v>
+        <v>0.08322650675712011</v>
       </c>
       <c r="K8" t="n">
-        <v>0.009229935265600672</v>
+        <v>0.009131758162212599</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01076202483229306</v>
+        <v>0.01065506807461081</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01449686739921028</v>
+        <v>0.01436293972906508</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00999916244439009</v>
+        <v>0.009903212383114963</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004733232885742503</v>
+        <v>0.004680430006366052</v>
       </c>
       <c r="P8" t="n">
-        <v>0.004790548089083338</v>
+        <v>0.004739891282762683</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003075022933339781</v>
+        <v>0.003040070165607645</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002126600802242042</v>
+        <v>0.002104126210247354</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001083377156121659</v>
+        <v>0.001071422966123018</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001791721202122919</v>
+        <v>0.001772903976687797</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002413787729514868</v>
+        <v>0.00239087098758905</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001516906297478969</v>
+        <v>0.001502280515791986</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0009455572995903238</v>
+        <v>0.0009361999849773361</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0005127543638780635</v>
+        <v>0.0005083318473092243</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0003394949120993447</v>
+        <v>0.0003364893138901011</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001361010875975145</v>
+        <v>0.001353600036753671</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0004037751393033789</v>
+        <v>0.0004014810005203925</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.140090757908697e-05</v>
+        <v>8.073354778222454e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.424119113397393e-05</v>
+        <v>1.407966473950219e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1455140578968424</v>
+        <v>0.1456543875172005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1467003731209581</v>
+        <v>0.1468299885277546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1453772484473897</v>
+        <v>0.1454510570639506</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1462293778060096</v>
+        <v>0.146374614272739</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1471257692906756</v>
+        <v>0.1473465359464465</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1817691630563719</v>
+        <v>0.1821632151637259</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1826578141460912</v>
+        <v>0.1829172298062227</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1837619642802813</v>
+        <v>0.1859217697318413</v>
       </c>
       <c r="J2" t="n">
-        <v>0.178274240838493</v>
+        <v>0.1805249767524908</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1934484070926671</v>
+        <v>0.193994088170637</v>
       </c>
       <c r="L2" t="n">
-        <v>0.221172425869609</v>
+        <v>0.2171413573325331</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1916199880862689</v>
+        <v>0.1854902190116358</v>
       </c>
       <c r="N2" t="n">
-        <v>0.160150966717401</v>
+        <v>0.1528333857910706</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1558292266159644</v>
+        <v>0.1377512475781448</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2459956834890455</v>
+        <v>0.219915766583996</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2408735771753504</v>
+        <v>0.2073012691216405</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2548051227919187</v>
+        <v>0.2032057226665306</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2397005872452521</v>
+        <v>0.1886825999343786</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1917594132580475</v>
+        <v>0.1462691256771631</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0815374710529872</v>
+        <v>0.05564923220946851</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1458462909862228</v>
+        <v>0.1005307323745994</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2929409376193541</v>
+        <v>0.1659083854746262</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3693089276876653</v>
+        <v>0.1995925271661582</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4662667068018235</v>
+        <v>0.2520857339890881</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4267239658146654</v>
+        <v>0.1809531303397306</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4152389077945092</v>
+        <v>0.1250496246992769</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3249803277733569</v>
+        <v>0.08605549806170489</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.246773153458905</v>
+        <v>0.05909110831112796</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1316085234984277</v>
+        <v>0.1316564211620317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1255107076654051</v>
+        <v>0.1260564504403033</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1323842641907068</v>
+        <v>0.1331073691628208</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1276617824621638</v>
+        <v>0.1281900396896847</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1212733746190285</v>
+        <v>0.1214090182064702</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05020198923734517</v>
+        <v>0.05083817953123614</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04394637019345929</v>
+        <v>0.04557645110705778</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02516114550298093</v>
+        <v>0.02690827340036935</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01651833969565236</v>
+        <v>0.01724159128119579</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01359294609613882</v>
+        <v>0.01222632095973657</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004502071101980329</v>
+        <v>0.003840922073097024</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002560030211813427</v>
+        <v>0.002075399276531955</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001391029461309581</v>
+        <v>0.001087486240922198</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004466904188250749</v>
+        <v>0.0002916487335954613</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0004923463309434586</v>
+        <v>0.0003369323144820476</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001388338393813097</v>
+        <v>8.485371437914535e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>4.947040682863398e-05</v>
+        <v>2.614505032142124e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.026907910063019e-05</v>
+        <v>1.03028138146559e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.025805436078237e-05</v>
+        <v>4.900475234989372e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34970816780548e-06</v>
+        <v>9.994615200000357e-07</v>
       </c>
       <c r="V3" t="n">
-        <v>2.291046560987398e-06</v>
+        <v>7.93469054540742e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.048671538070549e-06</v>
+        <v>5.301040869762996e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.559716013367941e-07</v>
+        <v>6.821338658605314e-08</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.867195955506315e-07</v>
+        <v>3.404095121120634e-08</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.413994467299507e-07</v>
+        <v>1.954602063577863e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.140696934559898e-07</v>
+        <v>1.081127759785702e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.446946517230206e-08</v>
+        <v>6.174313555786503e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.897541195079965e-08</v>
+        <v>3.661098469066658e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1316085087959144</v>
+        <v>0.1316564061345406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1255106856529624</v>
+        <v>0.1260564285207108</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1323842504215965</v>
+        <v>0.1331073557075397</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1276617631636859</v>
+        <v>0.1281900204180935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1212733484770349</v>
+        <v>0.1214089916619011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0502024454882714</v>
+        <v>0.05083868171812272</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04394682328133988</v>
+        <v>0.04557694669493595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02516152819384595</v>
+        <v>0.0269087013944798</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01651864108639331</v>
+        <v>0.01724192149294076</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01359331036875881</v>
+        <v>0.01222666820689345</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01527954096285509</v>
+        <v>0.01389441379769083</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01645419235649111</v>
+        <v>0.0149717867827519</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01730145747311856</v>
+        <v>0.01569824949095612</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01818599002556873</v>
+        <v>0.01656376906464759</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01715392429459357</v>
+        <v>0.01590281702801627</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0185109267631638</v>
+        <v>0.01710241608743191</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01990963971238194</v>
+        <v>0.01848516316892714</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02213365386651124</v>
+        <v>0.02031109010923451</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02251629873212901</v>
+        <v>0.02033770948089699</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02021909246731588</v>
+        <v>0.01731483341344048</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01623173119233715</v>
+        <v>0.01415213235906231</v>
       </c>
       <c r="W4" t="n">
-        <v>0.007486712059737858</v>
+        <v>0.007878883400217734</v>
       </c>
       <c r="X4" t="n">
-        <v>0.005238917645767627</v>
+        <v>0.006005430197469712</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001557992832519661</v>
+        <v>0.002155995676149327</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00320762582913605</v>
+        <v>0.00533139045266743</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.00327529307534416</v>
+        <v>0.005987215665839372</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.003924762265544581</v>
+        <v>0.006410005648500728</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.004534343157334423</v>
+        <v>0.006773386485684156</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1316029743154835</v>
+        <v>0.1316507492878197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1255023995496871</v>
+        <v>0.1260481773190748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1323790673004645</v>
+        <v>0.1331022906637562</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1276544986712625</v>
+        <v>0.128182765990544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1212635080008141</v>
+        <v>0.1213989996005082</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05019020702792449</v>
+        <v>0.05082552448450265</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04393517131098787</v>
+        <v>0.04556435801934498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02515270209975808</v>
+        <v>0.0268989023573968</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01651197014444229</v>
+        <v>0.01723466442755777</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01358578894695577</v>
+        <v>0.01221954565211684</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01549064896436175</v>
+        <v>0.01362708693394172</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01334616221054031</v>
+        <v>0.01157095169843742</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01108949269181115</v>
+        <v>0.009475503011619793</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01069643785779942</v>
+        <v>0.008450832059634254</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01700435784503718</v>
+        <v>0.01358876005124185</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01679385081791029</v>
+        <v>0.01292421906997046</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01790004474963082</v>
+        <v>0.01278047636899314</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0169788750481025</v>
+        <v>0.01196521455170593</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01365476283964242</v>
+        <v>0.009327820068934298</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005869992253030198</v>
+        <v>0.003590466552359229</v>
       </c>
       <c r="V5" t="n">
-        <v>0.009181860253848137</v>
+        <v>0.005748857075050361</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01899088679352777</v>
+        <v>0.01009665583525328</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02534813710202655</v>
+        <v>0.01347093336290579</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03649119695617943</v>
+        <v>0.01956208257078245</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03416333611156463</v>
+        <v>0.01460578884421705</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.03439753949935283</v>
+        <v>0.01059863815496619</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02818144045107778</v>
+        <v>0.007646248905971876</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02225501052496699</v>
+        <v>0.005465088285487867</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1606738893369079</v>
+        <v>0.1604402589687166</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1705971675037538</v>
+        <v>0.1694663590380223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1593992910101011</v>
+        <v>0.1579990992527959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1671513139076203</v>
+        <v>0.166035374507849</v>
       </c>
       <c r="F6" t="n">
-        <v>0.177903463836045</v>
+        <v>0.1774297948199045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2508296597445426</v>
+        <v>0.2494491785928817</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2592874175475222</v>
+        <v>0.2565559267438337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2860965317011996</v>
+        <v>0.281363477549514</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3042259147896991</v>
+        <v>0.3009042415522046</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2940608466260321</v>
+        <v>0.2954273159015132</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3265832360002511</v>
+        <v>0.3326553552928874</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3612630295979511</v>
+        <v>0.3687364536385166</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3908893184541741</v>
+        <v>0.3983812886884321</v>
       </c>
       <c r="O6" t="n">
-        <v>0.403632554019734</v>
+        <v>0.4166824146482067</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3522655951417374</v>
+        <v>0.369882178653156</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3590413280460895</v>
+        <v>0.3797684456534731</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3498688893558299</v>
+        <v>0.3801709158703193</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3541028762707805</v>
+        <v>0.3841183503158074</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3808006260020211</v>
+        <v>0.4081157342173112</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4488043905830005</v>
+        <v>0.4670696614302713</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4470530871130546</v>
+        <v>0.4783345428668481</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4552200934359327</v>
+        <v>0.5329696254068051</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4263840858068124</v>
+        <v>0.5427494087728302</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.420448692626111</v>
+        <v>0.6002564051730633</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.432900653538567</v>
+        <v>0.5999930318105825</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4418148715540213</v>
+        <v>0.6482357163587922</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.5203728581311995</v>
+        <v>0.6816236394307043</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.589458473849285</v>
+        <v>0.7057490523946038</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1391372177905879</v>
+        <v>0.1392881467895901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1368925500144318</v>
+        <v>0.1372963552803618</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394283674738996</v>
+        <v>0.1398863091759206</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1376373790487153</v>
+        <v>0.1380478956729842</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1349897144546329</v>
+        <v>0.135248136450126</v>
       </c>
       <c r="G7" t="n">
-        <v>0.169226814886305</v>
+        <v>0.1695770388020233</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1705128545146092</v>
+        <v>0.1706649712821258</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1731984441532323</v>
+        <v>0.1749014431744094</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1694744373963322</v>
+        <v>0.1713701945712723</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1821242020592016</v>
+        <v>0.1828862324503756</v>
       </c>
       <c r="L7" t="n">
-        <v>0.095056849286871</v>
+        <v>0.09091547016955638</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05934724152973118</v>
+        <v>0.05440248981808628</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0354163764007507</v>
+        <v>0.03145453923272042</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01437610357609773</v>
+        <v>0.01090550904950057</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01881907137350765</v>
+        <v>0.01493248842536915</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.006233773447887952</v>
+        <v>0.004517415027262637</v>
       </c>
       <c r="R7" t="n">
-        <v>0.00259431744607757</v>
+        <v>0.001639126550819557</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001198170364412463</v>
+        <v>0.0007323886519894292</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0006483579489661887</v>
+        <v>0.0003741266261566944</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00015889913708312</v>
+        <v>8.138323064954286e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0001984117702469392</v>
+        <v>8.437316031582945e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001964084418807486</v>
+        <v>6.279432989182239e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>3.672971246478003e-05</v>
+        <v>8.918401127324824e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.097322991885363e-05</v>
+        <v>4.867848013204488e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.624585058502023e-05</v>
+        <v>2.862449679752171e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.334929324892827e-05</v>
+        <v>1.615889902182943e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.848541989587263e-06</v>
+        <v>9.373506528003466e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.885971866696495e-06</v>
+        <v>5.62297716934035e-07</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.159854828365836</v>
+        <v>0.1596536301401007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1692861164928016</v>
+        <v>0.1682462408737725</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1586475111558418</v>
+        <v>0.1573465189732161</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1660038849405426</v>
+        <v>0.1649792894481056</v>
       </c>
       <c r="F8" t="n">
-        <v>0.176170821321769</v>
+        <v>0.1757585233146435</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2475797205592394</v>
+        <v>0.2463081817075076</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2557135490059905</v>
+        <v>0.253144116346479</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2814676840687018</v>
+        <v>0.2770974323919893</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2984764560489877</v>
+        <v>0.2954824099223379</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2895944988102457</v>
+        <v>0.2910198286587273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3219152278140715</v>
+        <v>0.3279253944002935</v>
       </c>
       <c r="M8" t="n">
-        <v>0.355409356007204</v>
+        <v>0.36275269977404</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3837613588014349</v>
+        <v>0.3910695475442788</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3968329974860106</v>
+        <v>0.4093545788662706</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3482690215251352</v>
+        <v>0.3654410569437386</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3584077099102166</v>
+        <v>0.3783013813258423</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3548725155373324</v>
+        <v>0.383692450324089</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3658655681258406</v>
+        <v>0.3941800536230695</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3906102831648329</v>
+        <v>0.4155705834543027</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4434078047984152</v>
+        <v>0.4562934237022909</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3814863276377294</v>
+        <v>0.4011485686950695</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2251629129780288</v>
+        <v>0.2830831254491187</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1736828460736619</v>
+        <v>0.2381727138861223</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07521425083385201</v>
+        <v>0.1259348807019524</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1029880314560353</v>
+        <v>0.1991137765571019</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.10525992471383</v>
+        <v>0.2101271784199456</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1225316883673665</v>
+        <v>0.2182636644281519</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1369730840622299</v>
+        <v>0.2229207985642808</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1417187675849016</v>
+        <v>0.1415881151078133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1412092584027373</v>
+        <v>0.1411646301288201</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1392658670215277</v>
+        <v>0.1389308846880453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1411855128175002</v>
+        <v>0.1411127141307016</v>
       </c>
       <c r="F2" t="n">
-        <v>0.141811382093053</v>
+        <v>0.1416482495787875</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1270462246287589</v>
+        <v>0.1270073842973481</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1496047016776643</v>
+        <v>0.149212558247681</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1597698343061848</v>
+        <v>0.1601346129345477</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1479880890582705</v>
+        <v>0.1472652116065659</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1194868464072744</v>
+        <v>0.1134943323108242</v>
       </c>
       <c r="L2" t="n">
-        <v>0.114504478269175</v>
+        <v>0.1090233530940948</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09908336258961858</v>
+        <v>0.09507316426128534</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06892515114519354</v>
+        <v>0.06484948101531157</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07589388027243046</v>
+        <v>0.07134971201475422</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08621986178097329</v>
+        <v>0.08171817944138347</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1033364486799812</v>
+        <v>0.09850124645291158</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08514007765226149</v>
+        <v>0.08056280286367259</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1232168159214317</v>
+        <v>0.1178189200737972</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09928995304587057</v>
+        <v>0.09515590705816561</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1042836506538753</v>
+        <v>0.1002811494367339</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05784898299464689</v>
+        <v>0.05000001682869319</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03592247657983902</v>
+        <v>0.02879316072387305</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09843244804051055</v>
+        <v>0.08087044664420306</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1406222111806511</v>
+        <v>0.1179503288743661</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0936404554414834</v>
+        <v>0.0759404114802905</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04059004031726952</v>
+        <v>0.02975281442775695</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01690134239532709</v>
+        <v>0.01151446697964596</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.008148937589916513</v>
+        <v>0.005655416978414165</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.146577549338284</v>
+        <v>0.1470135342054756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1483657513618416</v>
+        <v>0.1485445826409394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1538986811258886</v>
+        <v>0.1548911866223543</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1482244462529642</v>
+        <v>0.148604042046779</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1465283973410622</v>
+        <v>0.1472409771745347</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1701604994971666</v>
+        <v>0.1707485274351829</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1350645360542582</v>
+        <v>0.1365971147545412</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1206198665718681</v>
+        <v>0.120699669822195</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1408746159161843</v>
+        <v>0.1428343079188746</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1845023974923418</v>
+        <v>0.1940520421882191</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2383689243279483</v>
+        <v>0.2481699736708791</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3449273089101308</v>
+        <v>0.3524485887149776</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4874509397852283</v>
+        <v>0.5056280915708787</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4613862789184523</v>
+        <v>0.4795701489211768</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4233960527268583</v>
+        <v>0.4385877675599636</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3579412397590733</v>
+        <v>0.3712480992392422</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4323488242248291</v>
+        <v>0.4497351026634286</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2851711906426817</v>
+        <v>0.3005549229976365</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3932160600677911</v>
+        <v>0.4083358179069278</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3923073296938325</v>
+        <v>0.4047592398538005</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5346985446638522</v>
+        <v>0.5671693174236819</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5999692287923659</v>
+        <v>0.6328108369854762</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4340538883453974</v>
+        <v>0.4865107642350784</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3493908463827178</v>
+        <v>0.406026113975643</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.4684658709068352</v>
+        <v>0.5116580152553722</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5782810639082741</v>
+        <v>0.6111896892421416</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6298739327227139</v>
+        <v>0.6541738326891025</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6419463657214518</v>
+        <v>0.6619994189878897</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1465775549694798</v>
+        <v>0.1470135404873573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1483657595738463</v>
+        <v>0.1485445910918078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1538986984909029</v>
+        <v>0.1548912055817585</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1482244544608718</v>
+        <v>0.1486040506939739</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1465284026677829</v>
+        <v>0.147240983408144</v>
       </c>
       <c r="G4" t="n">
-        <v>0.170160119659567</v>
+        <v>0.1707481643169567</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1350647825145599</v>
+        <v>0.1365973799218509</v>
       </c>
       <c r="I4" t="n">
-        <v>0.120620426113007</v>
+        <v>0.1207002456761153</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1408749838320894</v>
+        <v>0.1428346837052852</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1845020317305354</v>
+        <v>0.194051554035311</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1540767679492555</v>
+        <v>0.1619248963509991</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1020457955233628</v>
+        <v>0.1089641850379904</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05422142600876655</v>
+        <v>0.05462814508563942</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05634032590748086</v>
+        <v>0.05730757741316451</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06146761531164238</v>
+        <v>0.0640121327606361</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08193347144398322</v>
+        <v>0.08482483672792286</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05585650218543836</v>
+        <v>0.05630743113219477</v>
       </c>
       <c r="S4" t="n">
-        <v>0.106244134431448</v>
+        <v>0.1063464924333587</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06102641758538763</v>
+        <v>0.05996480790491893</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05065333099177525</v>
+        <v>0.05079536567843763</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01695512696052926</v>
+        <v>0.01304464195822527</v>
       </c>
       <c r="W4" t="n">
-        <v>0.006726714151782286</v>
+        <v>0.004388862593267318</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02813133526297495</v>
+        <v>0.01883075881325924</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02692384225712566</v>
+        <v>0.01840612501892197</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.005787932170759542</v>
+        <v>0.003261998424882936</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0008526610652279632</v>
+        <v>0.0003290120622155597</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0001025012684941959</v>
+        <v>2.734159045120765e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.521553899861664e-06</v>
+        <v>1.369942225905434e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1465796748102305</v>
+        <v>0.1470159052752403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.148368850935523</v>
+        <v>0.1485477723694533</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1539052355454692</v>
+        <v>0.1548983428467492</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1482275443014516</v>
+        <v>0.1486073058885739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1465304078673897</v>
+        <v>0.1472433299847312</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1701691979407211</v>
+        <v>0.1707573610822175</v>
       </c>
       <c r="H5" t="n">
-        <v>0.135062407170616</v>
+        <v>0.1365950212924438</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1206123695885438</v>
+        <v>0.1206921895209633</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1408705675655127</v>
+        <v>0.1428304944582853</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1845110684382408</v>
+        <v>0.1940633247346624</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1774849694066062</v>
+        <v>0.1871257943909611</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1546774536721186</v>
+        <v>0.1642957381749585</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1084321881389306</v>
+        <v>0.1130334573424763</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1194666123340668</v>
+        <v>0.1244111874274227</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1357282973294744</v>
+        <v>0.1424430237600498</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.163122669267511</v>
+        <v>0.172141549130333</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1338503227664103</v>
+        <v>0.1401708878349376</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1950623112409231</v>
+        <v>0.2063421217711827</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1560948045160128</v>
+        <v>0.1654647989090401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1633995125951113</v>
+        <v>0.1738673640104464</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08275315226712658</v>
+        <v>0.07727447275003443</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04778450189510971</v>
+        <v>0.04085532543453192</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1490989161831372</v>
+        <v>0.1296467506592538</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.219601810107333</v>
+        <v>0.1934674125143768</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1246798063582191</v>
+        <v>0.1054205330210034</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04446107309780709</v>
+        <v>0.03276014245678396</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01505636333412877</v>
+        <v>0.009949051146348621</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.005432752987918313</v>
+        <v>0.003567754096175985</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1372410900215429</v>
+        <v>0.1365799603227009</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1345007308002303</v>
+        <v>0.1342199032140675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1264178530418553</v>
+        <v>0.1249529660025239</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1347861471479807</v>
+        <v>0.134166498496359</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1372325789739025</v>
+        <v>0.1360978281946841</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1169004334132739</v>
+        <v>0.1158585949189577</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1464897477769435</v>
+        <v>0.1443661200077935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1578223353350654</v>
+        <v>0.1570703602625899</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1395732748322205</v>
+        <v>0.1371501043452319</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1032404848089641</v>
+        <v>0.09486124388805497</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08487059993598661</v>
+        <v>0.07786992418775052</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05447460790346241</v>
+        <v>0.05080672845471061</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0281075067105232</v>
+        <v>0.02460641808257093</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02888747145582063</v>
+        <v>0.0255674012798015</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03122682974810718</v>
+        <v>0.02834665897845473</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04250642456641092</v>
+        <v>0.03819698315178111</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02748744274255164</v>
+        <v>0.02389190890182251</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05521884811423131</v>
+        <v>0.04749274684577967</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02872889711031047</v>
+        <v>0.02400436021307071</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02172395585522978</v>
+        <v>0.01856121950107353</v>
       </c>
       <c r="V6" t="n">
-        <v>0.008321425625760243</v>
+        <v>0.005724931634033875</v>
       </c>
       <c r="W6" t="n">
-        <v>0.003764576959531646</v>
+        <v>0.002260258810321153</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01545606291545556</v>
+        <v>0.009399762525105467</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0199978363923964</v>
+        <v>0.012209657344786</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00614877447697415</v>
+        <v>0.003341538177267247</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0009270737713472713</v>
+        <v>0.0003475342323340638</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0001147632984050364</v>
+        <v>2.999343801417601e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.804922646132863e-06</v>
+        <v>1.592888785567479e-06</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1438391789679504</v>
+        <v>0.1439570546906336</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1443493662219239</v>
+        <v>0.144406513816955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1455648751624288</v>
+        <v>0.1457970259598333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1442462907859953</v>
+        <v>0.144388971745081</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1439003061388991</v>
+        <v>0.1441422913668187</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1282903449060448</v>
+        <v>0.128599460193092</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1520126642348038</v>
+        <v>0.1519778640659586</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1625298584697067</v>
+        <v>0.1633672130087097</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1498761726946943</v>
+        <v>0.149493857287011</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1199818638857295</v>
+        <v>0.1140114059631389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1452878492300134</v>
+        <v>0.1374274320876807</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1898493941643285</v>
+        <v>0.1771069025885315</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2244546629187589</v>
+        <v>0.212345332637141</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2288052212986663</v>
+        <v>0.2158936134224821</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2303529726964579</v>
+        <v>0.2161601993990605</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2082530733970719</v>
+        <v>0.1964536814348853</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2373579532956596</v>
+        <v>0.2249574982799257</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1793243922752447</v>
+        <v>0.1733204394489198</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2322115075065535</v>
+        <v>0.22235755251978</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2450591686581518</v>
+        <v>0.2323542401562291</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2915291062722115</v>
+        <v>0.2815021658491228</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3025610395447612</v>
+        <v>0.2890160963899495</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2610811518488501</v>
+        <v>0.2666974990599095</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.22859765509478</v>
+        <v>0.2431209908522911</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2976741703800188</v>
+        <v>0.2985649560183019</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3343359105550393</v>
+        <v>0.3254281844120929</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3378813220735232</v>
+        <v>0.3242882437165834</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.344450093693609</v>
+        <v>0.3287735026871544</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1374661843076108</v>
+        <v>0.1368318899107788</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1348402827038976</v>
+        <v>0.1345720067379571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1270487896119274</v>
+        <v>0.1256383882987353</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1351056042332363</v>
+        <v>0.1345164169985317</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1374685249179106</v>
+        <v>0.1363863402922999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1172731799544678</v>
+        <v>0.1162805077562451</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1467011605711543</v>
+        <v>0.1446539417097309</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1580253096156241</v>
+        <v>0.1573357087748792</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1399422961010282</v>
+        <v>0.137591340678746</v>
       </c>
       <c r="K8" t="n">
-        <v>0.103775307236914</v>
+        <v>0.09546609687978956</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08540641088101493</v>
+        <v>0.07845862621763459</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05494207723697817</v>
+        <v>0.05130469276754616</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02840812529259885</v>
+        <v>0.02490907426598197</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02922020981308262</v>
+        <v>0.02590035952119825</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03160837040648656</v>
+        <v>0.02873203810045182</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04290667288596843</v>
+        <v>0.03863360386292371</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02795887713284935</v>
+        <v>0.02437436832401816</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05576230737403935</v>
+        <v>0.04812435642932557</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02943236016807393</v>
+        <v>0.02471675548809685</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0225730515520241</v>
+        <v>0.01938142136327898</v>
       </c>
       <c r="V8" t="n">
-        <v>0.007893661215873409</v>
+        <v>0.005284453556208626</v>
       </c>
       <c r="W8" t="n">
-        <v>0.003271462076610303</v>
+        <v>0.001875459062580745</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01374619740367442</v>
+        <v>0.008044018063190507</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01486579858499606</v>
+        <v>0.008819371419614931</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.003602990265709905</v>
+        <v>0.001812547622881831</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.00055217728503464</v>
+        <v>0.0001926231666749528</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.977490740785164e-05</v>
+        <v>1.707043985429204e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.523530558245021e-06</v>
+        <v>9.444193542484477e-07</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1415471527680958</v>
+        <v>0.1415496594719647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1377218700695405</v>
+        <v>0.1377934384276176</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1389583771723323</v>
+        <v>0.1391710621197345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1367747980479772</v>
+        <v>0.1369429621166332</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1373374301321565</v>
+        <v>0.1376996206256086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1682699352966725</v>
+        <v>0.1686975768181592</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1899325878203621</v>
+        <v>0.1901486228003808</v>
       </c>
       <c r="I2" t="n">
-        <v>0.169636020495179</v>
+        <v>0.1700022928250605</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1878577181909382</v>
+        <v>0.187852115174358</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1902013369661967</v>
+        <v>0.1901107937330888</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1779294498696019</v>
+        <v>0.1777583171019567</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1525898201680157</v>
+        <v>0.15189962132186</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1208209889497449</v>
+        <v>0.1195778690466988</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1729651537238364</v>
+        <v>0.1616897856639893</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1258665995780407</v>
+        <v>0.1166004870878681</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1586617772614368</v>
+        <v>0.1492968790175809</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2011300015519414</v>
+        <v>0.1920897435184677</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2088161901303619</v>
+        <v>0.2030410040584044</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2297067877642677</v>
+        <v>0.2146181955823341</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3415733984261377</v>
+        <v>0.322617470371552</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2935177351522958</v>
+        <v>0.2720380051397267</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3260435569198677</v>
+        <v>0.3106304818851961</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2634064195729964</v>
+        <v>0.2388076477465413</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1681630688624704</v>
+        <v>0.1488679435011794</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1955770315481461</v>
+        <v>0.1548964823656492</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1494661237244126</v>
+        <v>0.1132920226958717</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0355178999953021</v>
+        <v>0.02484882350020435</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02213803762226202</v>
+        <v>0.01541913486101425</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1470125740816468</v>
+        <v>0.1470023479442454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1574073752865691</v>
+        <v>0.1572669730525912</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1537668726644575</v>
+        <v>0.1532124694039045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1596175465679069</v>
+        <v>0.1592028311564936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1598226913496315</v>
+        <v>0.1588354797306978</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1051819884096056</v>
+        <v>0.1044786342522987</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06427227563837193</v>
+        <v>0.06405728591098954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1027327773379297</v>
+        <v>0.102333250989218</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05981166296398455</v>
+        <v>0.05951581030948281</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03926840727799284</v>
+        <v>0.03905455697320147</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02331129384303161</v>
+        <v>0.0231928621461451</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01083534067225161</v>
+        <v>0.01076770008891888</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004704743163093747</v>
+        <v>0.004668968022055472</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006925987725741421</v>
+        <v>0.006081461019935498</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002731048561531617</v>
+        <v>0.002377473516791815</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.009261863081374319</v>
+        <v>0.008059363407779333</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01668409913700928</v>
+        <v>0.01489192215164891</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03281850731049761</v>
+        <v>0.02991010116642988</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01847692477726285</v>
+        <v>0.0160418654862562</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01188313291113616</v>
+        <v>0.01027361696858471</v>
       </c>
       <c r="V3" t="n">
-        <v>0.006870177862273033</v>
+        <v>0.005834793998603529</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01856301950815159</v>
+        <v>0.01636434320897796</v>
       </c>
       <c r="X3" t="n">
-        <v>0.008541153033184633</v>
+        <v>0.007174241305649742</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003439049356770006</v>
+        <v>0.002840270001035528</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.003517997329421519</v>
+        <v>0.002496770844142729</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.002158128334780395</v>
+        <v>0.001456212006984338</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0003735921123562643</v>
+        <v>0.0002307481663344107</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0001966612400507174</v>
+        <v>0.0001209787397623292</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1470125804936511</v>
+        <v>0.1470023543429035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1574073994170177</v>
+        <v>0.1572669968704649</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1537668908435866</v>
+        <v>0.1532124865990481</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1596175748800549</v>
+        <v>0.1592028587038055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1598227179857631</v>
+        <v>0.158835504694068</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1051824423504477</v>
+        <v>0.104479100172424</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06427290381088185</v>
+        <v>0.06405792041025235</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1027330764504911</v>
+        <v>0.1023335661066614</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05981212856442944</v>
+        <v>0.05951628046748069</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03926883753441374</v>
+        <v>0.03905498949800638</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0459596590250442</v>
+        <v>0.04566000704526346</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05251042684379242</v>
+        <v>0.05214721235451682</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05661471200056148</v>
+        <v>0.05617685682393431</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05451557569886235</v>
+        <v>0.05494350711396384</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05878544580047333</v>
+        <v>0.05862215271554284</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05513094886397643</v>
+        <v>0.05563875358763534</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0488663112428161</v>
+        <v>0.0500813057081879</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03992304183070341</v>
+        <v>0.04170550291825902</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05136388791830099</v>
+        <v>0.05324812320400945</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04768829556842444</v>
+        <v>0.05023702410061769</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06502960371282292</v>
+        <v>0.0671173543094207</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04393011555339956</v>
+        <v>0.04683169437012403</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06925140416404948</v>
+        <v>0.07352636886106494</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1110375517904436</v>
+        <v>0.1135961734046731</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1010084033664826</v>
+        <v>0.1148859096154622</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1125159156496693</v>
+        <v>0.1259826750957244</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1652973966457158</v>
+        <v>0.1744139514095055</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1735162525177281</v>
+        <v>0.1819577060885453</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1470149942796677</v>
+        <v>0.1470047631050409</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1574164834382729</v>
+        <v>0.1572759632122143</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1537737344616723</v>
+        <v>0.1532189597833613</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1596282331694968</v>
+        <v>0.1592132290585986</v>
       </c>
       <c r="F5" t="n">
-        <v>0.15983274513537</v>
+        <v>0.1588449021222716</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1051814109926022</v>
+        <v>0.1044774223671188</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06426614057414806</v>
+        <v>0.06405079285286173</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1027345920195422</v>
+        <v>0.1023343927831358</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05980791518420517</v>
+        <v>0.05951174535936191</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03926389341743984</v>
+        <v>0.03904984560719971</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03651584252436427</v>
+        <v>0.03629963126192719</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03106690213758667</v>
+        <v>0.03077207527463321</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0243972530828291</v>
+        <v>0.02402507284635103</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03511456710484891</v>
+        <v>0.03261494870910935</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02530988931158121</v>
+        <v>0.02329672847251577</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03166236685176176</v>
+        <v>0.02960099972009134</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03980767922588135</v>
+        <v>0.03777267642395764</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04110028309229046</v>
+        <v>0.03970605940433338</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04552953177786516</v>
+        <v>0.04227860067916711</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06720437354535361</v>
+        <v>0.06309765325859798</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06138245683409058</v>
+        <v>0.05654160742315505</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06235408600694501</v>
+        <v>0.05908350186932051</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05552485773781923</v>
+        <v>0.05012023030395203</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03880378810904505</v>
+        <v>0.03415052579483951</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.04532363924174559</v>
+        <v>0.03611428732417779</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.03642125409958019</v>
+        <v>0.02783106339636611</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.009408352334733951</v>
+        <v>0.006658379156112325</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.006145023625376171</v>
+        <v>0.00432896920924785</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1366259708400132</v>
+        <v>0.1366420886774651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.121626868018511</v>
+        <v>0.1218073597752374</v>
       </c>
       <c r="D6" t="n">
-        <v>0.126986739403106</v>
+        <v>0.1277766519999575</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1185814700626848</v>
+        <v>0.119162564968353</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1175967776200957</v>
+        <v>0.1190228689117426</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1664163361367157</v>
+        <v>0.1674585485973073</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2043716390211023</v>
+        <v>0.204975828654919</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1685364830048006</v>
+        <v>0.1692018653574481</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2128578802125339</v>
+        <v>0.2138049964764562</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2405397047988582</v>
+        <v>0.2414704064500868</v>
       </c>
       <c r="L6" t="n">
-        <v>0.289217243652363</v>
+        <v>0.2899994730263297</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3406706445070212</v>
+        <v>0.3417045126663411</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3802560629986411</v>
+        <v>0.3815808884086216</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3377948496611026</v>
+        <v>0.3483947409647811</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3825169963270614</v>
+        <v>0.3902380573947634</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3356079309000466</v>
+        <v>0.3461434630352405</v>
       </c>
       <c r="R6" t="n">
-        <v>0.272027203340268</v>
+        <v>0.2849949265297244</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2089846864603583</v>
+        <v>0.2232580565502038</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2430104109435416</v>
+        <v>0.2623067614117008</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1953990291705211</v>
+        <v>0.214476378430969</v>
       </c>
       <c r="V6" t="n">
-        <v>0.226975189748233</v>
+        <v>0.2442271740247088</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1753195233383844</v>
+        <v>0.1945681570508639</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2291482974226268</v>
+        <v>0.2458251768091252</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2480220708427406</v>
+        <v>0.2575556391472914</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2567667135358827</v>
+        <v>0.2637068304831839</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.282898972789669</v>
+        <v>0.2855512718144809</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3531465570959955</v>
+        <v>0.3389509997083842</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3613153200549233</v>
+        <v>0.3446883273469387</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1439159403840997</v>
+        <v>0.1439126028155373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1460306998979733</v>
+        <v>0.1460233167971581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1451992233373566</v>
+        <v>0.1450967075293917</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1463495056804718</v>
+        <v>0.1462818042986531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1470220011164944</v>
+        <v>0.1468189427322686</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1826734947302791</v>
+        <v>0.1823201141790929</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2081042245262421</v>
+        <v>0.2073756386343834</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1843778202817493</v>
+        <v>0.1839197087690281</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2068729215257407</v>
+        <v>0.2059470877523483</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2115880042608523</v>
+        <v>0.2105451781681915</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1392140090559425</v>
+        <v>0.1385573068896054</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07399266088620027</v>
+        <v>0.07348264248200431</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03648700936970331</v>
+        <v>0.03612553984485026</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05598126291445917</v>
+        <v>0.04948407724860218</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02484511717780871</v>
+        <v>0.02177400717940156</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07320398786615917</v>
+        <v>0.0646445073528109</v>
       </c>
       <c r="R7" t="n">
-        <v>0.145286657408425</v>
+        <v>0.1311646892747587</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2542987105397898</v>
+        <v>0.2339978129415748</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1576232089258516</v>
+        <v>0.1381662515521468</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1275244536242866</v>
+        <v>0.1111647594001671</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07718976603263142</v>
+        <v>0.06609213673441058</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1839276968657798</v>
+        <v>0.16258302104465</v>
       </c>
       <c r="X7" t="n">
-        <v>0.08972050998371943</v>
+        <v>0.07552942910841527</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0377721626572543</v>
+        <v>0.03124605686217488</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03934720830039028</v>
+        <v>0.02804828615856445</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02461825755945324</v>
+        <v>0.01669246007105262</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.004372083123220553</v>
+        <v>0.002714917905190501</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.002332170104304837</v>
+        <v>0.001442329312635873</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1368707871528257</v>
+        <v>0.1368861836428431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1223893038721157</v>
+        <v>0.1225659518647165</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1275481621174886</v>
+        <v>0.1283116625646026</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1194308715914078</v>
+        <v>0.1199937496974627</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1185656366604887</v>
+        <v>0.1199426811833428</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1670943920836773</v>
+        <v>0.1680886036135991</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2047802286088918</v>
+        <v>0.2053339107362131</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1692492304103079</v>
+        <v>0.169874923169448</v>
       </c>
       <c r="J8" t="n">
-        <v>0.212979773358168</v>
+        <v>0.2138519644605121</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2398698157442463</v>
+        <v>0.2407142295702255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2878525020296525</v>
+        <v>0.2885324025287724</v>
       </c>
       <c r="M8" t="n">
-        <v>0.338334204785132</v>
+        <v>0.3392262358117258</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3767192304354262</v>
+        <v>0.3778448050074885</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3367026031711493</v>
+        <v>0.3467914792796188</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3799449032435031</v>
+        <v>0.3870910936331165</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.336471125175245</v>
+        <v>0.3466160338788618</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2761980480936589</v>
+        <v>0.2890047363932549</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2140585806359984</v>
+        <v>0.2283814629607947</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2542892478929101</v>
+        <v>0.2733402020843855</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2087273167541405</v>
+        <v>0.2281330974695115</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2690350706576533</v>
+        <v>0.2881489283699747</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1898620018074718</v>
+        <v>0.2099388005708674</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2844073580856039</v>
+        <v>0.3090169058652514</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.392762308381276</v>
+        <v>0.4117433912888063</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3584590066779313</v>
+        <v>0.3998514332088199</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3919213478424352</v>
+        <v>0.42919429491952</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.431884118692676</v>
+        <v>0.4521821801542686</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4343565348353548</v>
+        <v>0.4520425544418558</v>
       </c>
     </row>
   </sheetData>
